--- a/product/抽奖结果.xlsx
+++ b/product/抽奖结果.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -403,136 +403,224 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>一等奖</v>
+        <v>10000022</v>
+      </c>
+      <c r="B4" t="str">
+        <v>余文彬</v>
+      </c>
+      <c r="C4" t="str">
+        <v>技术服务部</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>二等奖</v>
+        <v>一等奖</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>10000027</v>
+        <v>10000037</v>
       </c>
       <c r="B6" t="str">
-        <v>裴永源</v>
+        <v>陈健娣</v>
       </c>
       <c r="C6" t="str">
-        <v>单色装配部</v>
+        <v>贴片部</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>三等奖</v>
+        <v>10000048</v>
+      </c>
+      <c r="B7" t="str">
+        <v>黄巧珍</v>
+      </c>
+      <c r="C7" t="str">
+        <v>邦定部</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>10000054</v>
+        <v>10000065</v>
       </c>
       <c r="B8" t="str">
-        <v>赵秋梅</v>
+        <v>程建芳</v>
       </c>
       <c r="C8" t="str">
-        <v>质检质控部</v>
+        <v>材料成品部</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>10000071</v>
+        <v>10000032</v>
       </c>
       <c r="B9" t="str">
-        <v>梁嘉华</v>
+        <v>黄树彬</v>
       </c>
       <c r="C9" t="str">
-        <v>工程部</v>
+        <v>单色装配部</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>四等奖</v>
+        <v>10000155</v>
+      </c>
+      <c r="B10" t="str">
+        <v>车忠强</v>
+      </c>
+      <c r="C10" t="str">
+        <v>业务部</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>10000003</v>
-      </c>
-      <c r="B11" t="str">
-        <v>何宪国</v>
-      </c>
-      <c r="C11" t="str">
-        <v>办公室</v>
+        <v>二等奖</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>10000042</v>
+        <v>10000003</v>
       </c>
       <c r="B12" t="str">
-        <v>欧木兰</v>
+        <v>何宪国</v>
       </c>
       <c r="C12" t="str">
-        <v>邦定部</v>
+        <v>办公室</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>五等奖</v>
+        <v>10000040</v>
+      </c>
+      <c r="B13" t="str">
+        <v>宋秀琪</v>
+      </c>
+      <c r="C13" t="str">
+        <v>贴片部</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>10000035</v>
-      </c>
-      <c r="B14" t="str">
-        <v>柯小红</v>
-      </c>
-      <c r="C14" t="str">
-        <v>彩屏装配部</v>
+        <v>三等奖</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>10000014</v>
+        <v>10000047</v>
       </c>
       <c r="B15" t="str">
-        <v>苏静怡</v>
+        <v>卢伙梅</v>
       </c>
       <c r="C15" t="str">
-        <v>办公室</v>
+        <v>邦定部</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>六等奖</v>
+        <v>10000028</v>
+      </c>
+      <c r="B16" t="str">
+        <v>梁肇豪</v>
+      </c>
+      <c r="C16" t="str">
+        <v>单色装配部</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>10000020</v>
+        <v>10000058</v>
       </c>
       <c r="B17" t="str">
-        <v>阮伟杰</v>
+        <v>唐丽</v>
       </c>
       <c r="C17" t="str">
-        <v>技术部</v>
+        <v>材料成品部</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>10000051</v>
-      </c>
-      <c r="B18" t="str">
-        <v>廖敏琼</v>
-      </c>
-      <c r="C18" t="str">
-        <v>质检质控部</v>
+        <v>四等奖</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>10000014</v>
+      </c>
+      <c r="B19" t="str">
+        <v>苏静怡</v>
+      </c>
+      <c r="C19" t="str">
+        <v>办公室</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>10000030</v>
+      </c>
+      <c r="B20" t="str">
+        <v>梁志亮</v>
+      </c>
+      <c r="C20" t="str">
+        <v>单色装配部</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>五等奖</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>10000073</v>
+      </c>
+      <c r="B22" t="str">
+        <v>徐焱</v>
+      </c>
+      <c r="C22" t="str">
+        <v>宣传部</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>10000031</v>
+      </c>
+      <c r="B23" t="str">
+        <v>梁思立</v>
+      </c>
+      <c r="C23" t="str">
+        <v>单色装配部</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>六等奖</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>10000010</v>
+      </c>
+      <c r="B25" t="str">
+        <v>盘敏怡</v>
+      </c>
+      <c r="C25" t="str">
+        <v>财务部</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>10000015</v>
+      </c>
+      <c r="B26" t="str">
+        <v>梁家豪</v>
+      </c>
+      <c r="C26" t="str">
+        <v>办公室</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C18"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C26"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/product/抽奖结果.xlsx
+++ b/product/抽奖结果.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -419,54 +419,54 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>10000037</v>
+        <v>10000030</v>
       </c>
       <c r="B6" t="str">
-        <v>陈健娣</v>
+        <v>梁志亮</v>
       </c>
       <c r="C6" t="str">
-        <v>贴片部</v>
+        <v>单色装配部</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>10000048</v>
+        <v>10000068</v>
       </c>
       <c r="B7" t="str">
-        <v>黄巧珍</v>
+        <v>陈燕霞</v>
       </c>
       <c r="C7" t="str">
-        <v>邦定部</v>
+        <v>采购部</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>10000065</v>
+        <v>10000017</v>
       </c>
       <c r="B8" t="str">
-        <v>程建芳</v>
+        <v>覃德泳</v>
       </c>
       <c r="C8" t="str">
-        <v>材料成品部</v>
+        <v>技术部</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>10000032</v>
+        <v>10000040</v>
       </c>
       <c r="B9" t="str">
-        <v>黄树彬</v>
+        <v>宋秀琪</v>
       </c>
       <c r="C9" t="str">
-        <v>单色装配部</v>
+        <v>贴片部</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>10000155</v>
+        <v>10000007</v>
       </c>
       <c r="B10" t="str">
-        <v>车忠强</v>
+        <v>车立新</v>
       </c>
       <c r="C10" t="str">
         <v>业务部</v>
@@ -479,24 +479,24 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>10000003</v>
+        <v>10000055</v>
       </c>
       <c r="B12" t="str">
-        <v>何宪国</v>
+        <v>谭妹好</v>
       </c>
       <c r="C12" t="str">
-        <v>办公室</v>
+        <v>质检质控部</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>10000040</v>
+        <v>10000006</v>
       </c>
       <c r="B13" t="str">
-        <v>宋秀琪</v>
+        <v>伍尚周</v>
       </c>
       <c r="C13" t="str">
-        <v>贴片部</v>
+        <v>办公室</v>
       </c>
     </row>
     <row r="14">
@@ -506,35 +506,35 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>10000047</v>
+        <v>10000060</v>
       </c>
       <c r="B15" t="str">
-        <v>卢伙梅</v>
+        <v>程彩漫</v>
       </c>
       <c r="C15" t="str">
-        <v>邦定部</v>
+        <v>材料成品部</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>10000028</v>
+        <v>10000052</v>
       </c>
       <c r="B16" t="str">
-        <v>梁肇豪</v>
+        <v>欧金莲</v>
       </c>
       <c r="C16" t="str">
-        <v>单色装配部</v>
+        <v>质检质控部</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>10000058</v>
+        <v>10000072</v>
       </c>
       <c r="B17" t="str">
-        <v>唐丽</v>
+        <v>郭敏鸿</v>
       </c>
       <c r="C17" t="str">
-        <v>材料成品部</v>
+        <v>宣传部</v>
       </c>
     </row>
     <row r="18">
@@ -544,21 +544,21 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>10000014</v>
+        <v>10000053</v>
       </c>
       <c r="B19" t="str">
-        <v>苏静怡</v>
+        <v>徐冰莹</v>
       </c>
       <c r="C19" t="str">
-        <v>办公室</v>
+        <v>质检质控部</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>10000030</v>
+        <v>10000029</v>
       </c>
       <c r="B20" t="str">
-        <v>梁志亮</v>
+        <v>陈伟</v>
       </c>
       <c r="C20" t="str">
         <v>单色装配部</v>
@@ -571,24 +571,24 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>10000073</v>
+        <v>10000031</v>
       </c>
       <c r="B22" t="str">
-        <v>徐焱</v>
+        <v>梁思立</v>
       </c>
       <c r="C22" t="str">
-        <v>宣传部</v>
+        <v>单色装配部</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>10000031</v>
+        <v>10000019</v>
       </c>
       <c r="B23" t="str">
-        <v>梁思立</v>
+        <v>陈金龙</v>
       </c>
       <c r="C23" t="str">
-        <v>单色装配部</v>
+        <v>技术部</v>
       </c>
     </row>
     <row r="24">
@@ -598,29 +598,95 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>10000010</v>
+        <v>10000013</v>
       </c>
       <c r="B25" t="str">
-        <v>盘敏怡</v>
+        <v>陈文飞</v>
       </c>
       <c r="C25" t="str">
-        <v>财务部</v>
+        <v>技术部</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
+        <v>10000168</v>
+      </c>
+      <c r="B26" t="str">
+        <v>霍妙婷</v>
+      </c>
+      <c r="C26" t="str">
+        <v>业务部</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
         <v>10000015</v>
       </c>
-      <c r="B26" t="str">
+      <c r="B27" t="str">
         <v>梁家豪</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C27" t="str">
         <v>办公室</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>10000058</v>
+      </c>
+      <c r="B28" t="str">
+        <v>唐丽</v>
+      </c>
+      <c r="C28" t="str">
+        <v>材料成品部</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>10000051</v>
+      </c>
+      <c r="B29" t="str">
+        <v>廖敏琼</v>
+      </c>
+      <c r="C29" t="str">
+        <v>质检质控部</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>10000010</v>
+      </c>
+      <c r="B30" t="str">
+        <v>盘敏怡</v>
+      </c>
+      <c r="C30" t="str">
+        <v>财务部</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>10000033</v>
+      </c>
+      <c r="B31" t="str">
+        <v>伍志国</v>
+      </c>
+      <c r="C31" t="str">
+        <v>彩屏装配部</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>10000056</v>
+      </c>
+      <c r="B32" t="str">
+        <v>陈梅婵</v>
+      </c>
+      <c r="C32" t="str">
+        <v>质检质控部</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C26"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C32"/>
   </ignoredErrors>
 </worksheet>
 </file>